--- a/data/需求更新_2024-12-24/更新导入模版-v1.4a.xlsx
+++ b/data/需求更新_2024-12-24/更新导入模版-v1.4a.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28422"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larrychen/work/Contact Project/信也法诉/案件管理系统/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV2024\Larry\case_management\data\需求更新_2024-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C795E833-A0D7-AB4E-87C9-E6218B16DF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB9DB1F-76EF-492E-ADE7-5AA5C7847784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1020" windowWidth="34200" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$L$4</definedName>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>手别</t>
   </si>
@@ -118,94 +117,34 @@
     <t>6715.88</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>案件初始导入</t>
   </si>
   <si>
-    <t>证据材料缺失待补充</t>
-  </si>
-  <si>
     <t>更新备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快递单号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>网上立案提交完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邮寄材料</t>
   </si>
   <si>
-    <t>邮寄材料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>法院立案成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>重新立案</t>
-  </si>
-  <si>
-    <t>重新立案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>诉前调解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>立案失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>诉讼开庭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确认还款计划</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -228,15 +167,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,38 +177,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4E95D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -341,63 +252,43 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -886,185 +777,185 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>29162.959999999999</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="10">
-        <v>29162.959999999999</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$9</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J4</xm:sqref>
         </x14:dataValidation>
@@ -1072,145 +963,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="16.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/需求更新_2024-12-24/更新导入模版-v1.4a.xlsx
+++ b/data/需求更新_2024-12-24/更新导入模版-v1.4a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV2024\Larry\case_management\data\需求更新_2024-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB9DB1F-76EF-492E-ADE7-5AA5C7847784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5212DA24-F501-49E3-ACFF-5602D61CEB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$N$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -117,9 +117,6 @@
     <t>6715.88</t>
   </si>
   <si>
-    <t>案件初始导入</t>
-  </si>
-  <si>
     <t>更新备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,6 +129,10 @@
   </si>
   <si>
     <t>重新立案</t>
+  </si>
+  <si>
+    <t>诉前调解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -777,7 +778,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -833,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -868,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -904,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -940,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -950,17 +951,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>